--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Report Generator\SVN\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F964DE82-9C53-4804-8B16-989570A02F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="5280" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -25,12 +26,23 @@
     <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Application Name:</t>
   </si>
@@ -104,25 +116,28 @@
     <t>Technology</t>
   </si>
   <si>
+    <t>Element Type</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;APPLICATION_RULE;ID=10151</t>
+  </si>
+  <si>
+    <t>Application Function Point - Data Functions</t>
+  </si>
+  <si>
+    <t>Previous Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF</t>
+  </si>
+  <si>
     <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF</t>
-  </si>
-  <si>
-    <t>Element Type</t>
-  </si>
-  <si>
-    <t>RepGen:TEXT;APPLICATION_RULE;ID=10151</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF</t>
-  </si>
-  <si>
-    <t>Application Function Point - Data Functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
@@ -548,42 +563,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -597,10 +576,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Header 1" xfId="1"/>
+    <cellStyle name="Header 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -633,7 +648,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -662,6 +677,11 @@
                 <a:srgbClr val="415A79"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-67B7-41A3-B8FB-A7D76995C638}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -671,6 +691,11 @@
                 <a:srgbClr val="506E94"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-67B7-41A3-B8FB-A7D76995C638}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -680,6 +705,11 @@
                 <a:srgbClr val="AAB3C2"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-67B7-41A3-B8FB-A7D76995C638}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -710,6 +740,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-67B7-41A3-B8FB-A7D76995C638}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -772,7 +807,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90"/>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -818,7 +859,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="TotalEFP"/>
+        <xdr:cNvPr id="3" name="TotalEFP">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -840,20 +887,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90"/>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -891,20 +944,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90"/>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1224,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -1254,8 +1313,8 @@
       <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1268,10 +1327,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1279,15 +1338,15 @@
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1300,55 +1359,55 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="45" t="s">
-        <v>26</v>
+      <c r="G5" s="33" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="49"/>
-      <c r="O8" s="48"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
@@ -1372,10 +1431,10 @@
     <mergeCell ref="C19:E19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added"/>
-    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added"/>
-    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF"/>
-    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF"/>
+    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1384,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,25 +1455,25 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1482,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1433,14 +1493,15 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1449,17 +1510,18 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
@@ -1468,21 +1530,24 @@
         <v>6</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1492,11 +1557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,37 +1569,38 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="26" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="26"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1543,14 +1609,15 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1559,17 +1626,18 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>5</v>
@@ -1578,22 +1646,25 @@
         <v>6</v>
       </c>
       <c r="E6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="G6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="I6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F964DE82-9C53-4804-8B16-989570A02F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730ACF1-C384-41DA-99A1-9FC3AE6BED5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
     <sheet name="Transactional Functions" sheetId="8" r:id="rId2"/>
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
+    <sheet name="TF with Previous value" sheetId="10" r:id="rId4"/>
+    <sheet name="DF with Previous value" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Application Name:</t>
   </si>
@@ -125,13 +127,19 @@
     <t>Application Function Point - Data Functions</t>
   </si>
   <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF</t>
+  </si>
+  <si>
     <t>Previous Value</t>
   </si>
   <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF</t>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF,PREVIOUS=YES</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF,PREVIOUS=YES</t>
   </si>
 </sst>
 </file>
@@ -477,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -575,6 +583,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -887,13 +907,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
@@ -944,13 +964,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
@@ -979,6 +999,120 @@
         <a:xfrm>
           <a:off x="6143625" y="272761"/>
           <a:ext cx="1601066" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610466</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1414B095-4437-47ED-AADD-F6CA8DF18C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="272761"/>
+          <a:ext cx="610466" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610466</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A0CE88-F830-40D2-9203-017FE3863832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6305550" y="272761"/>
+          <a:ext cx="610466" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,8 +1447,8 @@
       <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1327,10 +1461,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1343,10 +1477,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1372,42 +1506,42 @@
       <c r="O8" s="36"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
@@ -1444,6 +1578,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="26" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="26"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B668ED-7018-48BA-A506-494EBFCC1F7E}">
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1485,10 +1839,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5"/>
@@ -1502,10 +1856,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4"/>
@@ -1530,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>7</v>
@@ -1547,7 +1901,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1556,12 +1910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABB8E7-C3E1-48F7-98AB-056D35989D90}">
   <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,10 +1955,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5"/>
@@ -1618,10 +1972,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4"/>
@@ -1646,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>7</v>
@@ -1664,7 +2018,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730ACF1-C384-41DA-99A1-9FC3AE6BED5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96BD355-6A90-4C1B-BAF8-96D94D78CCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Application Name:</t>
   </si>
@@ -61,18 +61,6 @@
     <t>Application Size:</t>
   </si>
   <si>
-    <t>Object Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Object Type</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>Summary Table for Application Function Point</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
   <si>
@@ -115,31 +100,22 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Element Type</t>
-  </si>
-  <si>
     <t>RepGen:TEXT;APPLICATION_RULE;ID=10151</t>
   </si>
   <si>
     <t>Application Function Point - Data Functions</t>
   </si>
   <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF</t>
-  </si>
-  <si>
-    <t>Previous Value</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=TF,PREVIOUS=YES</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,TYPE=DF,PREVIOUS=YES</t>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=TF</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=DF</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=TF,PREVIOUS=YES</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=DF,PREVIOUS=YES</t>
   </si>
 </sst>
 </file>
@@ -149,18 +125,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,18 +202,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -282,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -291,17 +253,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -370,15 +321,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,15 +400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -478,158 +411,140 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1420,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1445,14 +1360,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="2"/>
@@ -1461,93 +1376,93 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="31"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="25"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>19</v>
+      <c r="G3" s="28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="32"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>22</v>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
-        <v>25</v>
+      <c r="G5" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="47"/>
+      <c r="G18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="C19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="47"/>
+      <c r="G19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="30">
+        <v>5</v>
+      </c>
+      <c r="F20" s="24">
         <f>F18+F19</f>
         <v>0</v>
       </c>
@@ -1578,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,18 +1513,18 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1617,65 +1532,42 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>18</v>
+      <c r="C3" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>21</v>
+      <c r="C4" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>28</v>
+    </row>
+    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,25 +1593,25 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="26" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="26"/>
+    <col min="8" max="8" width="25.7109375" style="23" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="23"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1727,66 +1619,42 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>18</v>
+      <c r="C3" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>21</v>
+      <c r="C4" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="G4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>27</v>
+    </row>
+    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1798,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B668ED-7018-48BA-A506-494EBFCC1F7E}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,18 +1686,18 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1838,12 +1706,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1851,16 +1719,16 @@
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>21</v>
+      <c r="C4" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1868,40 +1736,14 @@
       <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABB8E7-C3E1-48F7-98AB-056D35989D90}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,25 +1769,25 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="9" max="9" width="25.7109375" style="23" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="23"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1954,12 +1796,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1967,16 +1809,16 @@
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>21</v>
+      <c r="C4" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1984,41 +1826,14 @@
       <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="H4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96BD355-6A90-4C1B-BAF8-96D94D78CCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA131F3E-5AD2-4E70-9D37-930F39CFF9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
     <sheet name="Transactional Functions" sheetId="8" r:id="rId2"/>
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
-    <sheet name="TF with Previous value" sheetId="10" r:id="rId4"/>
-    <sheet name="DF with Previous value" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Application Name:</t>
   </si>
@@ -61,6 +59,15 @@
     <t>Application Size:</t>
   </si>
   <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -85,6 +92,9 @@
     <t>Summary Table for Application Function Point</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
   <si>
@@ -100,22 +110,28 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Element Type</t>
+  </si>
+  <si>
     <t>RepGen:TEXT;APPLICATION_RULE;ID=10151</t>
   </si>
   <si>
     <t>Application Function Point - Data Functions</t>
   </si>
   <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=TF</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=DF</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=TF,PREVIOUS=YES</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;IFPUG_FUNCTIONS;TYPE=DF,PREVIOUS=YES</t>
+    <t>Contributed Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,ZERO=NO,PREVIOUS=YES,TYPE=DF</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;IFPUG_FUNCTIONS;HEADER=NO,ZERO=NO,PREVIOUS=YES,TYPE=TF</t>
+  </si>
+  <si>
+    <t>Previous contributed Value</t>
   </si>
 </sst>
 </file>
@@ -125,10 +141,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; LoC&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -244,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -253,43 +283,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -321,6 +362,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,6 +450,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -411,140 +470,146 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -614,7 +679,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-67B7-41A3-B8FB-A7D76995C638}"/>
+                <c16:uniqueId val="{00000001-4CBF-4CD2-9338-C22A07C54E9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -628,7 +693,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-67B7-41A3-B8FB-A7D76995C638}"/>
+                <c16:uniqueId val="{00000003-4CBF-4CD2-9338-C22A07C54E9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -642,7 +707,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-67B7-41A3-B8FB-A7D76995C638}"/>
+                <c16:uniqueId val="{00000005-4CBF-4CD2-9338-C22A07C54E9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -677,7 +742,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-67B7-41A3-B8FB-A7D76995C638}"/>
+              <c16:uniqueId val="{00000006-4CBF-4CD2-9338-C22A07C54E9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,13 +887,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
@@ -879,13 +944,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>610466</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>187036</xdr:rowOff>
@@ -914,120 +979,6 @@
         <a:xfrm>
           <a:off x="6143625" y="272761"/>
           <a:ext cx="1601066" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610466</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1414B095-4437-47ED-AADD-F6CA8DF18C2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6143625" y="272761"/>
-          <a:ext cx="610466" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610466</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A0CE88-F830-40D2-9203-017FE3863832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6305550" y="272761"/>
-          <a:ext cx="610466" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,14 +1311,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+        <v>19</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="2"/>
@@ -1376,93 +1327,93 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="25"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="31"/>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>14</v>
+      <c r="G3" s="34" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="32"/>
       <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
+      <c r="G4" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="27" t="s">
-        <v>18</v>
+      <c r="G5" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="31"/>
-      <c r="O8" s="30"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="41"/>
+      <c r="G18" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="41"/>
+      <c r="G19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="24">
+        <v>8</v>
+      </c>
+      <c r="F20" s="30">
         <f>F18+F19</f>
         <v>0</v>
       </c>
@@ -1493,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,69 +1456,99 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>13</v>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="H3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>16</v>
+      <c r="C4" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="H4" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,114 +1571,29 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="23" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B668ED-7018-48BA-A506-494EBFCC1F7E}">
-  <dimension ref="B1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="26"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1706,12 +1602,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1719,16 +1615,16 @@
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="H3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>16</v>
+      <c r="C4" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1736,104 +1632,41 @@
       <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="H4" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABB8E7-C3E1-48F7-98AB-056D35989D90}">
-  <dimension ref="B1:K6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="23" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="23"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA131F3E-5AD2-4E70-9D37-930F39CFF9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165585D9-347E-4D39-9C8F-AEB653337565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Previous contributed Value</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>189634</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1297,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
@@ -1308,17 +1308,17 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="2"/>
@@ -1332,14 +1332,14 @@
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,19 +1348,19 @@
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="43"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
@@ -1405,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="30">
         <f>F18+F19</f>
@@ -1447,7 +1447,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,16 +1467,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1490,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1507,48 +1507,48 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>7</v>
-      </c>
       <c r="H6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,16 +1584,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1624,49 +1624,49 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>7</v>
-      </c>
       <c r="H6" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165585D9-347E-4D39-9C8F-AEB653337565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F6527-DD5E-498A-8286-CD8531F72B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$F$21</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -513,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,8 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +556,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -597,7 +590,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +604,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -713,7 +718,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$18:$E$19</c:f>
+              <c:f>Summary!$C$19:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -727,7 +732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$18:$F$19</c:f>
+              <c:f>Summary!$F$19:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -792,69 +797,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>189634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112567</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>164454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -874,10 +827,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028661</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813DC90D-AC72-4FF1-9001-98FA4FFDD6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342660" y="199159"/>
+          <a:ext cx="1106592" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1284,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,8 +1316,8 @@
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1326,115 +1329,123 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="15" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-    </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="34"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="14">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="14">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="30">
-        <f>F18+F19</f>
+      <c r="F21" s="29">
+        <f>F19+F20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G20" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19:H19" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G20:H20" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1521,7 +1532,7 @@
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1559,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -1575,14 +1586,13 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1601,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1612,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1636,35 +1646,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/Function-points-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Temp\RG\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165585D9-347E-4D39-9C8F-AEB653337565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044583ED-64B6-4F52-B533-4687B270460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2085" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Data Functions" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$F$20</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$F$21</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -513,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,8 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +556,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -597,7 +602,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +616,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -713,7 +721,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$C$18:$E$19</c:f>
+              <c:f>Summary!$C$19:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -727,7 +735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$18:$F$19</c:f>
+              <c:f>Summary!$F$19:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -792,69 +800,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>189634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112567</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>164454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -874,10 +830,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028661</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813DC90D-AC72-4FF1-9001-98FA4FFDD6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342660" y="199159"/>
+          <a:ext cx="1106592" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -887,52 +893,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:rowOff>25111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610466</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2478192</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:rowOff>385111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0922DFC-3CBC-4275-A33A-33F24407A7E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="272761"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="11763375" y="225136"/>
+          <a:ext cx="1106592" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -990,6 +994,56 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2306742</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>369525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6060C7D2-B499-41C6-93C0-C8208A158CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="209550"/>
+          <a:ext cx="1106592" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1284,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,8 +1367,8 @@
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1326,115 +1380,123 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="15" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-    </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="37"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="34"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="14">
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="14">
         <f>SUM('Transactional Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="14">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="14">
         <f>SUM('Data Functions'!D:D)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="30">
-        <f>F18+F19</f>
+      <c r="F21" s="29">
+        <f>F19+F20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G18" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G18:H18" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G19:H19" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G19" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G20" location="'EFP Added'!TABLE_1" display="Show added" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19:H19" location="'Transactional Functions'!A1" display="Browse TF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G20:H20" location="'Data Functions'!A1" display="Browse DF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1447,7 +1509,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1536,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1545,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -1498,7 +1560,7 @@
       <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1521,7 +1583,7 @@
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1559,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,14 +1637,13 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="26" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="26"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1652,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1600,9 +1661,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1615,11 +1676,11 @@
       <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -1636,35 +1697,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
